--- a/biology/Zoologie/Hippotrague_noir/Hippotrague_noir.xlsx
+++ b/biology/Zoologie/Hippotrague_noir/Hippotrague_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippotragus niger
 L'hippotrague noir (Hippotragus niger) ou Antilope noire est un mammifère herbivore de la famille des bovidés (sous-famille des hippotraginae) qui habite la savane boisée de l'Afrique australe sur une zone qui couvre le Mozambique, la Tanzanie, le Zimbabwe, le nord du Botswana, la Zambie, la Namibie, l'Afrique du Sud, le sud de la République démocratique du Congo et le sud-est de l'Angola.
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hippotrague noir mesure 115 à 145 cm au garrot, pour une longueur du corps de 190 à 250 cm. Le poids des femelles varie de 180 à 230 kg contre 200 à 270 kg pour les mâles. Les mâles étant plus grands et plus lourds que les femelles
 C’est un animal à l’encolure épaisse, au long museau étroit, aux oreilles pointues (non terminées par un toupet comme chez la rouanne). Il porte une crinière dressée et ce jusqu’au garrot et une queue longue qui se termine par une touffe. L'hippotrague noir est facilement reconnaissable à son pelage : noir profond pour les mâles et marron pour les femelles. L'abdomen, l’intérieur des membres postérieurs, le fessier et une partie de la face sont blancs chez les deux sexes.
@@ -551,7 +565,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des animaux diurnes mais qui ont une activité réduite pendant la chaleur du jour. Les hippotragues noirs sont grégaires, plusieurs sortes de troupeaux se forment :
 les troupeaux des femelles et de leur petit ;
@@ -589,7 +605,9 @@
           <t>Nourriture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Herbivore, ruminant, le groupe parcours des pâturages s'étendant sur 10 à 320 km2, suivant la qualité de l'herbe. Sur ces pâturages, il est toujours en mouvement. L’hippotrague noir broute surtout le matin de très bonne heure et vers le milieu de l'après-midi, avant de se retirer sous le couvert pour ruminer. Il peut aussi manger des feuillages d'arbustes et de buissons, surtout pendant la saison sèche, lorsque l'herbe est rare et de mauvaise qualité. Malgré ce régime chargé d'humidité, il doit boire tous les jours.
 </t>
@@ -620,7 +638,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hippotrague est vivipare. Il atteint sa maturité sexuelle vers 2 ans pour les femelles et 3 ans pour les mâles. Les femelles ne donnent naissance qu'à un seul petit après 270 jours de gestation, il vivra caché et à l'écart pendant quelque temps avant de rejoindre le troupeau familial, il sera sevré vers 8 mois.
 </t>
@@ -651,7 +671,9 @@
           <t>Prédation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses prédateurs sont les lions, mais aussi l'homme qui le chasse pour ses cornes, sa peau et sa viande. Si on les dérange, ces antilopes peuvent devenir très agressives, en particulier le mâle dominant, et n'hésitent pas à charger quiconque s'approche du groupe ou des jeunes. Elles peuvent être rapides en cas de nécessité et courir jusqu'à 56 km/h. Bien qu'il fuie le plus souvent devant le danger, l’hippotrague noir peut aussi faire face aux prédateurs et même attaquer des lions. Blessé ou acculé, il se défend avec ténacité, profite de sa dernière énergie et charge tête baissée, cornes pointées sur l'ennemi, en poussant des cris perçants.
 </t>
@@ -682,9 +704,11 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En captivité, la longévité de l'hippotrague noir se situe entre 15 et 20 ans, un spécimen ayant atteint 22 ans et 3 mois[1],[2]. Dans la nature, la longévité moyenne est a priori plus faible, du fait des prédateurs, des maladies, etc[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En captivité, la longévité de l'hippotrague noir se situe entre 15 et 20 ans, un spécimen ayant atteint 22 ans et 3 mois,. Dans la nature, la longévité moyenne est a priori plus faible, du fait des prédateurs, des maladies, etc.
 </t>
         </is>
       </c>
@@ -713,9 +737,11 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La population d'hippotragues noirs est stable, elle est estimée à 75 000 individus[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La population d'hippotragues noirs est stable, elle est estimée à 75 000 individus.
 </t>
         </is>
       </c>
@@ -744,10 +770,12 @@
           <t>L'hippotrague noir géant</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Appelée en portugais Palanca Negra et emblème de l'Angola, cette sous-espèce ne se trouve nulle part ailleurs dans le monde. On n'en comptait plus que 2 500 individus dans les années 1960 ; et pendant la guerre civile qui a suivi l'indépendance de l'Angola, une très grande partie a été décimée. Depuis 1982, aucun hippotrague noir géant n'avait même été observé dans la forêt épaisse qui constitue son habitat, jusqu'au 26 février 2005, où une série de photos, prise par un appareil à déclenchement automatique, aurait révélé l'existence d'un groupe en bonne santé.
-En 2007, la population totale d'hippotragues noirs géants est estimée être comprise entre 200 et 400 individus[4]. En 2011, un programme de développement de l'espèce est mené dans le parc de Cangandala, plusieurs femelles et quelques mâles étant retenus dans des enclos de plusieurs milliers d'hectares[5].
+En 2007, la population totale d'hippotragues noirs géants est estimée être comprise entre 200 et 400 individus. En 2011, un programme de développement de l'espèce est mené dans le parc de Cangandala, plusieurs femelles et quelques mâles étant retenus dans des enclos de plusieurs milliers d'hectares.
 </t>
         </is>
       </c>
